--- a/Producción Fiscalizada Crudo 2018.xlsx
+++ b/Producción Fiscalizada Crudo 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43F0506-C0F8-46FF-B714-1C4AF583613A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9A1543-A945-49DA-B6ED-67FE9922F4C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2180,9 +2180,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2500,7 +2498,7 @@
   <dimension ref="A1:Q471"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F1" sqref="F1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,34 +2533,34 @@
         <v>43132</v>
       </c>
       <c r="H1" s="7">
-        <v>43163</v>
+        <v>43160</v>
       </c>
       <c r="I1" s="7">
-        <v>43194</v>
+        <v>43191</v>
       </c>
       <c r="J1" s="7">
-        <v>43225</v>
+        <v>43221</v>
       </c>
       <c r="K1" s="7">
-        <v>43256</v>
+        <v>43252</v>
       </c>
       <c r="L1" s="7">
-        <v>43287</v>
+        <v>43282</v>
       </c>
       <c r="M1" s="7">
-        <v>43318</v>
+        <v>43313</v>
       </c>
       <c r="N1" s="7">
-        <v>43349</v>
+        <v>43344</v>
       </c>
       <c r="O1" s="7">
-        <v>43380</v>
+        <v>43374</v>
       </c>
       <c r="P1" s="7">
-        <v>43411</v>
+        <v>43405</v>
       </c>
       <c r="Q1" s="7">
-        <v>43442</v>
+        <v>43435</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -27443,18 +27441,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27598,18 +27596,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13515A21-E437-46BA-A090-A0B1A19BE7F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F95E94B4-C040-41BA-90B6-18866C474D53}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F95E94B4-C040-41BA-90B6-18866C474D53}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13515A21-E437-46BA-A090-A0B1A19BE7F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Producción Fiscalizada Crudo 2018.xlsx
+++ b/Producción Fiscalizada Crudo 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9A1543-A945-49DA-B6ED-67FE9922F4C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B1EB54-FBCC-49E5-B3FC-0B9751EC19E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2180,7 +2180,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2497,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -27441,18 +27441,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27596,18 +27596,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F95E94B4-C040-41BA-90B6-18866C474D53}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13515A21-E437-46BA-A090-A0B1A19BE7F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13515A21-E437-46BA-A090-A0B1A19BE7F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F95E94B4-C040-41BA-90B6-18866C474D53}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
